--- a/SpMVC_book/src/main/webapp/static/document/빛고을 Book Rent Management System 2023.xlsx
+++ b/SpMVC_book/src/main/webapp/static/document/빛고을 Book Rent Management System 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505004\Documents\workspace\SpirngMVC\SpMVC_book\src\main\webapp\static\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB64A4A2-E3E0-4FCB-8212-BE292618E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0B8431-6C2C-43B6-A107-2A80DEA4F148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16395" yWindow="0" windowWidth="12510" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15030" yWindow="2730" windowWidth="11625" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="books" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>b_rprice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(13)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1274,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2028,7 +2032,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>25</v>
